--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/White-chinned Petrel_Antipodes Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/White-chinned Petrel_Antipodes Islands.xlsx
@@ -2855,13 +2855,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6ED5546-DD79-46C9-9822-25ABD86E3F99}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10B900B-A813-400D-9DC9-5A38C7D2BE08}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66F6C916-2B99-425A-AF77-9121C29C1A50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB748920-F17B-4C93-8C23-40792979D686}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F7CEE0-8EFF-4087-BF16-BDCBA8EACB63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C701C2B-B3C4-45C0-9512-4117B362CC9C}"/>
 </file>